--- a/Test Data/excelDataProviderReport.xlsx
+++ b/Test Data/excelDataProviderReport.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A6AEBB-A945-4A17-AA05-59FA58159AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F584527-2566-4C77-A710-66AA2015AA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportMulti" sheetId="2" r:id="rId1"/>
     <sheet name="ReportUnit" sheetId="1" r:id="rId2"/>
-    <sheet name="ReportFunctional" sheetId="3" r:id="rId3"/>
-    <sheet name="ReportEdit" sheetId="4" r:id="rId4"/>
+    <sheet name="WebpagesSecurity" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>Scenario</t>
   </si>
@@ -37,18 +36,12 @@
     <t>r</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Toast</t>
   </si>
   <si>
-    <t>Ridham</t>
-  </si>
-  <si>
     <t>Alpha</t>
   </si>
   <si>
@@ -91,33 +84,12 @@
     <t>Restro Admin</t>
   </si>
   <si>
-    <t>Krunal</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
-    <t>Vendor Busines Name</t>
-  </si>
-  <si>
-    <t>NewVendorBName</t>
-  </si>
-  <si>
-    <t>AlreadyRegisteredVendorBName</t>
-  </si>
-  <si>
-    <t>MandatoryField</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>John@hashtaginfosystem.in</t>
-  </si>
-  <si>
     <t>GST No</t>
   </si>
   <si>
@@ -133,27 +105,12 @@
     <t>Alpha 123459</t>
   </si>
   <si>
-    <t>Business Name Already Exists</t>
-  </si>
-  <si>
-    <t>Kiran Oil Industries</t>
-  </si>
-  <si>
-    <t>Ridham Vegetables</t>
-  </si>
-  <si>
     <t>Mumbai 4652366</t>
   </si>
   <si>
     <t>24AAACC1206D1ZM</t>
   </si>
   <si>
-    <t>Ridham Store</t>
-  </si>
-  <si>
-    <t>John12@hashtaginfosystem.in</t>
-  </si>
-  <si>
     <t>krunal@hashtaginfosystem.com</t>
   </si>
   <si>
@@ -202,24 +159,6 @@
     <t>9887452@956623.655</t>
   </si>
   <si>
-    <t>90/50 Royal-Indian Residency, Bhaya St, Nanpura, Surat, Gujarat 395002</t>
-  </si>
-  <si>
-    <t>65/5 Indian-Blue Residency, Bhaya St, Nanpura, Surat, Gujarat 395003</t>
-  </si>
-  <si>
-    <t>45/5 Royal Japan-Blue Residency, Bhaya St, Nanpura, Surat, Gujarat 395001</t>
-  </si>
-  <si>
-    <t>24AAACC1206D95L</t>
-  </si>
-  <si>
-    <t>Hemant Store</t>
-  </si>
-  <si>
-    <t>DisneyLand Trader 987</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
@@ -278,13 +217,70 @@
   </si>
   <si>
     <t>Textarea</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>UseCase</t>
+  </si>
+  <si>
+    <t>SubAdmin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>URLS</t>
+  </si>
+  <si>
+    <t>http://hashtagmis.online/staff/todays-task</t>
+  </si>
+  <si>
+    <t>http://hashtagmis.online/staff/report/history</t>
+  </si>
+  <si>
+    <t>http://hashtagmis.online/staff/team-reports</t>
+  </si>
+  <si>
+    <t>http://hashtagmis.online/staff/profile</t>
+  </si>
+  <si>
+    <t>http://hashtagmis.online/staff/team-reports/view?id=66bf0eeb99903583cb67d5af</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee/edit?id=66b08b49bdf4ce9814c14400</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee/add</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/department</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee-tasks</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee-tasks/add</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee-reports</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee-reports/view/?id=66c467addfe2820877e83c82&amp;name=Harun</t>
+  </si>
+  <si>
+    <t>https://hashtagmis.online/admin/employee-reports/edit/?id=66c467addfe2820877e83c82&amp;name=Harun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,18 +324,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -416,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -428,18 +412,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48ECD8B-E118-4A0C-BDF1-A2E2C5D2E2FA}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -758,259 +740,259 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
         <v>21</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>67</v>
+      <c r="E3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>67</v>
+      <c r="E4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2">
         <v>23</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>67</v>
+      <c r="E5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2">
         <v>24</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>67</v>
+      <c r="E6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
         <v>25</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>67</v>
+      <c r="E7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>26</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>67</v>
+      <c r="E8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2">
         <v>27</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>67</v>
+      <c r="E9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2">
         <v>28</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>67</v>
+      <c r="E10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2">
         <v>29</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>67</v>
+      <c r="E11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2">
         <v>30</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>67</v>
+      <c r="E12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
         <v>31</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>67</v>
+      <c r="E13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2">
         <v>19</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>67</v>
+      <c r="E14" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1006,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1073,254 +1055,254 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>31</v>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7">
         <v>8698706549</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>54</v>
+      <c r="G5" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="H5" s="7">
         <v>8698706551</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>21</v>
+      <c r="I5" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>17</v>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
+      <c r="A8" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7">
         <v>8698706549</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>21</v>
+      <c r="G8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>46</v>
+      <c r="A9" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7">
         <v>869870654</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>47</v>
+      <c r="G9" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="14" t="s">
-        <v>21</v>
+      <c r="I9" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>49</v>
+      <c r="A10" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>51</v>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7">
         <v>98886987065</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>48</v>
+      <c r="G10" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1341,342 +1323,201 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBC2BF5-E26F-4875-87EA-2CF181E35799}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E6A91-FD8A-42D3-9299-96A263568976}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="92.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7">
-        <v>8698706547</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7">
-        <v>8698706547</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7">
-        <v>8698706549</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>21</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{6B5C68F5-F05B-4F5C-B040-AB209C0EF9AA}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{8DC869F5-CF30-471C-851A-90FDE5AACD73}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6BB977-2807-419B-B235-285898CCE43D}">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7">
-        <v>8698706547</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7">
-        <v>8698706547</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7">
-        <v>8698706549</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{5DF536FA-014C-4F16-AB33-3308E34A2631}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{CFEC51CB-16A9-475F-8182-C10E1FAB7076}"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://localhost:5173/staff/team-reports/view?id=66bf0eeb99903583cb67d5af" xr:uid="{42632EFF-D78C-4C3B-93A5-E6604BE75887}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{B7BF75CD-6098-4E73-8575-5D19A5FA4D97}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{3764D331-E492-4871-9352-9FFB0750D8BE}"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://localhost:5173/staff/report/history" xr:uid="{491A6491-231E-432F-A778-DC5F33E4EE85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
